--- a/data/Maintained Snake River IPTDS Metadata 20250724.xlsx
+++ b/data/Maintained Snake River IPTDS Metadata 20250724.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\SnakeRiverIPTDS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F19050-0CA8-4675-863E-BFB1DBF8C48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257C94DC-8AA9-42EB-B6E9-F4F998C99717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="581" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="16440" windowHeight="28320" tabRatio="581" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SR_IPTDS_Sites" sheetId="3" r:id="rId1"/>
@@ -853,12 +853,6 @@
     <t>Wallowa River at rkm 32</t>
   </si>
   <si>
-    <t>522.271.131.032</t>
-  </si>
-  <si>
-    <t>WR2 is a tandem array in-stream detection sytem located in the Wallowa River at approximately river km 32 just upstream of Lower Diamond Road bridge near the town of Wallowa, OR. A total of 8 HDPE antennas (2 sets of 4 in parallel) span approximately 21 meters river channel. WR2 was installed on August 2, 2018 and is operated by the Nez Perce Tribe Grand Ronde Supplementation Monitoring and Evaluation Program. The site is powered by a thermal electric generator fueled by a 300 gallon propane tank. Remote communication is provided by satellite phone modem. Data collection started on October 23, 2018.</t>
-  </si>
-  <si>
     <t>Upper Grande Ronde at rkm 155</t>
   </si>
   <si>
@@ -1745,6 +1739,12 @@
   </si>
   <si>
     <t>This site consists of a single 20 ft wide by 8 ft deep pass-through antenna placed perpendicular to river current at Clearwater River rkm 10 at the site of the discontinued Clearwater Trap (CLWTRP). The purpose of the antenna is to detect juvenile salmonids as they transition from the free-flowing Clearwater River to Lower Granite Dam Reservoir while emigrating downstream. The antenna is the same NOAA Fisheries design used at PD8. The antenna is mounted on a 20 ft beam on a 6 ft x 10’ pontoon raft with an IS1001 Biomark reader and two 12v batteries. Data is manually downloaded when the batteries are changed every two weeks. The pontoon raft and antenna are held in position by a cable connecting the raft to the CLWTRP traps high line crossing the Clearwater River, and by 30 lb anchors at each end of the 20 ft wide antenna. The antenna is positioned 16 m - 26 m south of the north bank using CLWTRP’s hydraulic winch system. The depth of the antenna may be less than 8’ feet due river current pushing the sides and bottom of antenna downstream.</t>
+  </si>
+  <si>
+    <t>522.271.131.021</t>
+  </si>
+  <si>
+    <t>WR2 is a single array in-stream detection system located in the Wallowa River at approximately river km 21. A Biomark IS1001 Master Controller with 6 HDPE antennas spanning the entire river at base flows. The new WR2 array was installed on September 19, 2024, and is operated by the Nez Perce Tribe Grand Ronde Supplementation Monitoring and Evaluation Program. The site is powered by solar panels and a thermal electric generator fueled by a 300-gallon propane tank. The original site was installed in 2018 at river km 32 with 8 antennas in two rows of four.</t>
   </si>
 </sst>
 </file>
@@ -2129,10 +2129,10 @@
   <dimension ref="A1:T116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A90" sqref="A90:XFD92"/>
+      <selection pane="bottomRight" activeCell="T43" sqref="T43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2167,16 +2167,16 @@
         <v>145</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -2197,25 +2197,25 @@
         <v>149</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>448</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>450</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>150</v>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>123</v>
@@ -2259,16 +2259,16 @@
         <v>625</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="Q2" s="5">
         <v>3</v>
@@ -2300,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>123</v>
@@ -2321,16 +2321,16 @@
         <v>641</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="Q3" s="5">
         <v>2</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>123</v>
@@ -2383,16 +2383,16 @@
         <v>675</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="Q4" s="5">
         <v>2</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>123</v>
@@ -2445,16 +2445,16 @@
         <v>681</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="Q5" s="5">
         <v>3</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>123</v>
@@ -2507,16 +2507,16 @@
         <v>700</v>
       </c>
       <c r="M6" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>467</v>
-      </c>
       <c r="P6" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Q6" s="7">
         <v>3</v>
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>168</v>
@@ -2569,10 +2569,10 @@
         <v>668</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -2591,10 +2591,10 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C8" s="2" t="b">
         <v>0</v>
@@ -2606,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>143</v>
@@ -2621,16 +2621,16 @@
         <v>-116.9669</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="L8" s="5">
         <v>773</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -2644,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -2661,10 +2661,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>89</v>
@@ -2685,16 +2685,16 @@
         <v>766</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="Q9" s="7">
         <v>2</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>90</v>
@@ -2747,16 +2747,16 @@
         <v>776</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="Q10" s="5">
         <v>3</v>
@@ -2788,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>92</v>
@@ -2809,16 +2809,16 @@
         <v>782</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="Q11" s="5">
         <v>2</v>
@@ -2850,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>91</v>
@@ -2871,16 +2871,16 @@
         <v>782</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="Q12" s="5">
         <v>2</v>
@@ -2912,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>93</v>
@@ -2933,16 +2933,16 @@
         <v>784</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="Q13" s="5">
         <v>1</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>93</v>
@@ -2995,16 +2995,16 @@
         <v>793</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="Q14" s="5">
         <v>2</v>
@@ -3036,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>94</v>
@@ -3057,16 +3057,16 @@
         <v>795</v>
       </c>
       <c r="M15" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="P15" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>455</v>
       </c>
       <c r="Q15" s="5">
         <v>2</v>
@@ -3098,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>95</v>
@@ -3119,16 +3119,16 @@
         <v>799</v>
       </c>
       <c r="M16" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="P16" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>455</v>
       </c>
       <c r="Q16" s="5">
         <v>2</v>
@@ -3157,10 +3157,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>96</v>
@@ -3181,16 +3181,16 @@
         <v>838</v>
       </c>
       <c r="M17" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="P17" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>455</v>
       </c>
       <c r="Q17" s="5">
         <v>2</v>
@@ -3222,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>93</v>
@@ -3243,16 +3243,16 @@
         <v>836</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="Q18" s="5">
         <v>2</v>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>97</v>
@@ -3305,16 +3305,16 @@
         <v>794</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="Q19" s="5">
         <v>2</v>
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>100</v>
@@ -3367,16 +3367,16 @@
         <v>854</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q20" s="5">
         <v>1</v>
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>100</v>
@@ -3429,16 +3429,16 @@
         <v>858</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q21" s="5">
         <v>1</v>
@@ -3455,25 +3455,25 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="C22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="C22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D22" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>504</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>139</v>
@@ -3485,22 +3485,22 @@
         <v>-116.582295</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L22" s="5">
         <v>789</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="Q22" s="5">
         <v>2</v>
@@ -3512,7 +3512,7 @@
         <v>1</v>
       </c>
       <c r="T22" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>139</v>
@@ -3553,10 +3553,10 @@
         <v>843</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -3590,10 +3590,10 @@
         <v>0</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>139</v>
@@ -3611,10 +3611,10 @@
         <v>856</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -3645,10 +3645,10 @@
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>102</v>
@@ -3669,16 +3669,16 @@
         <v>867</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q25" s="5">
         <v>1</v>
@@ -3707,10 +3707,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>102</v>
@@ -3731,16 +3731,16 @@
         <v>868</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q26" s="5">
         <v>1</v>
@@ -3769,10 +3769,10 @@
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>98</v>
@@ -3793,14 +3793,14 @@
         <v>871</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="Q27" s="5">
         <v>2</v>
@@ -3812,7 +3812,7 @@
         <v>1</v>
       </c>
       <c r="T27" s="9" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
@@ -3829,10 +3829,10 @@
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>99</v>
@@ -3853,16 +3853,16 @@
         <v>904</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q28" s="5">
         <v>1</v>
@@ -3891,10 +3891,10 @@
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>99</v>
@@ -3915,16 +3915,16 @@
         <v>906</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q29" s="5">
         <v>1</v>
@@ -3953,10 +3953,10 @@
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>101</v>
@@ -3977,16 +3977,16 @@
         <v>908</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="Q30" s="5">
         <v>1</v>
@@ -4015,10 +4015,10 @@
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>101</v>
@@ -4039,16 +4039,16 @@
         <v>916</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="Q31" s="5">
         <v>1</v>
@@ -4077,10 +4077,10 @@
         <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>102</v>
@@ -4101,16 +4101,16 @@
         <v>926</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="Q32" s="5">
         <v>1</v>
@@ -4139,10 +4139,10 @@
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>102</v>
@@ -4163,16 +4163,16 @@
         <v>947</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="Q33" s="5">
         <v>2</v>
@@ -4201,10 +4201,10 @@
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>103</v>
@@ -4225,16 +4225,16 @@
         <v>960</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q34" s="5">
         <v>2</v>
@@ -4263,10 +4263,10 @@
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>121</v>
@@ -4287,16 +4287,16 @@
         <v>757</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Q35" s="5">
         <v>3</v>
@@ -4325,10 +4325,10 @@
         <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>121</v>
@@ -4349,16 +4349,16 @@
         <v>761</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Q36" s="5">
         <v>2</v>
@@ -4387,10 +4387,10 @@
         <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>122</v>
@@ -4411,16 +4411,16 @@
         <v>779</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Q37" s="5">
         <v>3</v>
@@ -4449,10 +4449,10 @@
         <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>121</v>
@@ -4473,16 +4473,16 @@
         <v>781</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Q38" s="5">
         <v>3</v>
@@ -4511,10 +4511,10 @@
         <v>1</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>104</v>
@@ -4535,16 +4535,16 @@
         <v>803</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q39" s="5">
         <v>2</v>
@@ -4573,10 +4573,10 @@
         <v>1</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>105</v>
@@ -4597,16 +4597,16 @@
         <v>867</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="Q40" s="5">
         <v>2</v>
@@ -4635,10 +4635,10 @@
         <v>1</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>108</v>
@@ -4659,16 +4659,16 @@
         <v>938</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q41" s="5">
         <v>1</v>
@@ -4697,10 +4697,10 @@
         <v>1</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>109</v>
@@ -4721,16 +4721,16 @@
         <v>941</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="Q42" s="5">
         <v>2</v>
@@ -4759,10 +4759,10 @@
         <v>1</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>108</v>
@@ -4771,31 +4771,31 @@
         <v>140</v>
       </c>
       <c r="I43" s="5">
-        <v>45.594465999999997</v>
+        <v>45.627473000000002</v>
       </c>
       <c r="J43" s="5">
-        <v>-117.579223</v>
+        <v>-117.671199</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>270</v>
+        <v>566</v>
       </c>
       <c r="L43" s="5">
-        <v>956</v>
+        <v>945</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="Q43" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R43" s="7">
         <v>6</v>
@@ -4803,16 +4803,16 @@
       <c r="S43" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="T43" s="9" t="s">
-        <v>271</v>
+      <c r="T43" s="10" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C44" s="2" t="b">
         <v>0</v>
@@ -4824,10 +4824,10 @@
         <v>0</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>140</v>
@@ -4839,16 +4839,16 @@
         <v>-117.863445</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="L44" s="5">
         <v>934</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -4862,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="T44" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
@@ -4870,7 +4870,7 @@
         <v>27</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C45" s="2" t="b">
         <v>1</v>
@@ -4879,10 +4879,10 @@
         <v>1</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>106</v>
@@ -4897,22 +4897,22 @@
         <v>-117.903379</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L45" s="5">
         <v>948</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q45" s="5">
         <v>1</v>
@@ -4924,7 +4924,7 @@
         <v>1</v>
       </c>
       <c r="T45" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
@@ -4932,7 +4932,7 @@
         <v>29</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C46" s="2" t="b">
         <v>0</v>
@@ -4944,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>107</v>
@@ -4959,22 +4959,22 @@
         <v>-117.82861699999999</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="L46" s="5">
         <v>1057</v>
       </c>
       <c r="M46" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="O46" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="N46" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>463</v>
-      </c>
       <c r="P46" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Q46" s="5">
         <v>2</v>
@@ -4986,7 +4986,7 @@
         <v>1</v>
       </c>
       <c r="T46" s="9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
@@ -4994,7 +4994,7 @@
         <v>28</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C47" s="2" t="b">
         <v>0</v>
@@ -5003,10 +5003,10 @@
         <v>1</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>107</v>
@@ -5021,22 +5021,22 @@
         <v>-117.900689</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L47" s="5">
         <v>1050</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="Q47" s="5">
         <v>2</v>
@@ -5048,15 +5048,15 @@
         <v>1</v>
       </c>
       <c r="T47" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C48" s="2" t="b">
         <v>0</v>
@@ -5065,10 +5065,10 @@
         <v>1</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>107</v>
@@ -5083,22 +5083,22 @@
         <v>-117.810315</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="L48" s="5">
         <v>1060</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="Q48" s="5">
         <v>2</v>
@@ -5110,15 +5110,15 @@
         <v>1</v>
       </c>
       <c r="T48" s="9" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C49" s="2" t="b">
         <v>0</v>
@@ -5127,10 +5127,10 @@
         <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>107</v>
@@ -5145,16 +5145,16 @@
         <v>-117.73515</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="L49" s="5">
         <v>1068</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -5168,7 +5168,7 @@
         <v>1</v>
       </c>
       <c r="T49" s="9" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
@@ -5176,7 +5176,7 @@
         <v>30</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C50" s="2" t="b">
         <v>0</v>
@@ -5185,10 +5185,10 @@
         <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>106</v>
@@ -5203,22 +5203,22 @@
         <v>-118.388958</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L50" s="5">
         <v>1084</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="Q50" s="5">
         <v>3</v>
@@ -5230,15 +5230,15 @@
         <v>1</v>
       </c>
       <c r="T50" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C51" s="2" t="b">
         <v>0</v>
@@ -5247,10 +5247,10 @@
         <v>1</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>106</v>
@@ -5265,16 +5265,16 @@
         <v>-118.36672299999999</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="L51" s="5">
         <v>1101</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -5288,15 +5288,15 @@
         <v>1</v>
       </c>
       <c r="T51" s="9" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C52" s="2" t="b">
         <v>0</v>
@@ -5305,10 +5305,10 @@
         <v>1</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>106</v>
@@ -5323,16 +5323,16 @@
         <v>-118.331371</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="L52" s="5">
         <v>1112</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
@@ -5346,15 +5346,15 @@
         <v>1</v>
       </c>
       <c r="T52" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C53" s="2" t="b">
         <v>0</v>
@@ -5363,13 +5363,13 @@
         <v>1</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>140</v>
@@ -5381,16 +5381,16 @@
         <v>-118.38008000000001</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="L53" s="5">
         <v>1083</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -5404,7 +5404,7 @@
         <v>1</v>
       </c>
       <c r="T53" s="9" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
@@ -5412,7 +5412,7 @@
         <v>80</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C54" s="2" t="b">
         <v>0</v>
@@ -5424,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>134</v>
@@ -5439,22 +5439,22 @@
         <v>-116.306603</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L54" s="5">
         <v>913</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="Q54" s="5">
         <v>2</v>
@@ -5466,7 +5466,7 @@
         <v>1</v>
       </c>
       <c r="T54" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
@@ -5474,7 +5474,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C55" s="2" t="b">
         <v>1</v>
@@ -5483,10 +5483,10 @@
         <v>1</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>118</v>
@@ -5501,22 +5501,22 @@
         <v>-115.579712</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L55" s="5">
         <v>1070</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q55" s="5">
         <v>1</v>
@@ -5528,7 +5528,7 @@
         <v>1</v>
       </c>
       <c r="T55" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
@@ -5536,7 +5536,7 @@
         <v>51</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C56" s="2" t="b">
         <v>1</v>
@@ -5545,10 +5545,10 @@
         <v>1</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>120</v>
@@ -5563,22 +5563,22 @@
         <v>-115.73302</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L56" s="5">
         <v>1102</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q56" s="5">
         <v>2</v>
@@ -5590,7 +5590,7 @@
         <v>1</v>
       </c>
       <c r="T56" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
@@ -5598,7 +5598,7 @@
         <v>49</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C57" s="2" t="b">
         <v>1</v>
@@ -5607,10 +5607,10 @@
         <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>119</v>
@@ -5625,22 +5625,22 @@
         <v>-115.53315000000001</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L57" s="5">
         <v>1121</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q57" s="5">
         <v>2</v>
@@ -5652,7 +5652,7 @@
         <v>1</v>
       </c>
       <c r="T57" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
@@ -5660,7 +5660,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C58" s="2" t="b">
         <v>0</v>
@@ -5669,10 +5669,10 @@
         <v>1</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>119</v>
@@ -5687,22 +5687,22 @@
         <v>-115.333883</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L58" s="5">
         <v>1142</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Q58" s="5">
         <v>2</v>
@@ -5714,7 +5714,7 @@
         <v>1</v>
       </c>
       <c r="T58" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
@@ -5722,7 +5722,7 @@
         <v>48</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C59" s="2" t="b">
         <v>1</v>
@@ -5731,10 +5731,10 @@
         <v>1</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>118</v>
@@ -5749,22 +5749,22 @@
         <v>-115.726994</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L59" s="5">
         <v>1105</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q59" s="5">
         <v>2</v>
@@ -5776,7 +5776,7 @@
         <v>1</v>
       </c>
       <c r="T59" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
@@ -5784,7 +5784,7 @@
         <v>45</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C60" s="2" t="b">
         <v>1</v>
@@ -5793,10 +5793,10 @@
         <v>1</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>116</v>
@@ -5811,22 +5811,22 @@
         <v>-114.85381700000001</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L60" s="5">
         <v>1184</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q60" s="5">
         <v>2</v>
@@ -5838,15 +5838,15 @@
         <v>1</v>
       </c>
       <c r="T60" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C61" s="2" t="b">
         <v>0</v>
@@ -5858,10 +5858,10 @@
         <v>0</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>142</v>
@@ -5873,16 +5873,16 @@
         <v>-115.284171</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L61" s="5">
         <v>1320</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
@@ -5896,7 +5896,7 @@
         <v>1</v>
       </c>
       <c r="T61" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
@@ -5904,7 +5904,7 @@
         <v>46</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C62" s="2" t="b">
         <v>1</v>
@@ -5913,10 +5913,10 @@
         <v>1</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>117</v>
@@ -5931,22 +5931,22 @@
         <v>-115.179841</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L62" s="5">
         <v>1322</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q62" s="5">
         <v>2</v>
@@ -5958,7 +5958,7 @@
         <v>1</v>
       </c>
       <c r="T62" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
@@ -5966,7 +5966,7 @@
         <v>82</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C63" s="2" t="b">
         <v>0</v>
@@ -5975,13 +5975,13 @@
         <v>1</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>142</v>
@@ -5993,22 +5993,22 @@
         <v>-114.358101</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L63" s="5">
         <v>1168</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="Q63" s="5">
         <v>2</v>
@@ -6020,7 +6020,7 @@
         <v>1</v>
       </c>
       <c r="T63" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
@@ -6037,10 +6037,10 @@
         <v>1</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>135</v>
@@ -6055,22 +6055,22 @@
         <v>-113.994089</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L64" s="5">
         <v>1208</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q64" s="5">
         <v>2</v>
@@ -6082,7 +6082,7 @@
         <v>1</v>
       </c>
       <c r="T64" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
@@ -6090,7 +6090,7 @@
         <v>61</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C65" s="2" t="b">
         <v>0</v>
@@ -6102,7 +6102,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>124</v>
@@ -6117,22 +6117,22 @@
         <v>-113.893466</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L65" s="5">
         <v>1234</v>
       </c>
       <c r="M65" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="P65" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="N65" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="O65" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="P65" s="2" t="s">
-        <v>455</v>
       </c>
       <c r="Q65" s="5">
         <v>3</v>
@@ -6144,7 +6144,7 @@
         <v>1</v>
       </c>
       <c r="T65" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
@@ -6161,13 +6161,13 @@
         <v>1</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>142</v>
@@ -6179,22 +6179,22 @@
         <v>-113.885278</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L66" s="5">
         <v>1242</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q66" s="5">
         <v>2</v>
@@ -6206,7 +6206,7 @@
         <v>1</v>
       </c>
       <c r="T66" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
@@ -6214,7 +6214,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C67" s="2" t="b">
         <v>0</v>
@@ -6223,13 +6223,13 @@
         <v>1</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>142</v>
@@ -6241,22 +6241,22 @@
         <v>-113.774021</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L67" s="5">
         <v>1257</v>
       </c>
       <c r="M67" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="P67" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="N67" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="O67" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="P67" s="2" t="s">
-        <v>455</v>
       </c>
       <c r="Q67" s="5">
         <v>2</v>
@@ -6268,15 +6268,15 @@
         <v>1</v>
       </c>
       <c r="T67" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C68" s="2" t="b">
         <v>0</v>
@@ -6288,10 +6288,10 @@
         <v>0</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>142</v>
@@ -6303,16 +6303,16 @@
         <v>-113.7556</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L68" s="5">
         <v>1257</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
@@ -6326,15 +6326,15 @@
         <v>0</v>
       </c>
       <c r="T68" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C69" s="2" t="b">
         <v>0</v>
@@ -6346,10 +6346,10 @@
         <v>0</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>142</v>
@@ -6361,16 +6361,16 @@
         <v>-113.74641800000001</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L69" s="5">
         <v>1258</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
@@ -6384,15 +6384,15 @@
         <v>0</v>
       </c>
       <c r="T69" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C70" s="2" t="b">
         <v>0</v>
@@ -6404,10 +6404,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>142</v>
@@ -6419,16 +6419,16 @@
         <v>-113.74987</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L70" s="5">
         <v>1258</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
@@ -6442,7 +6442,7 @@
         <v>0</v>
       </c>
       <c r="T70" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
@@ -6450,7 +6450,7 @@
         <v>67</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C71" s="2" t="b">
         <v>1</v>
@@ -6459,10 +6459,10 @@
         <v>1</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>127</v>
@@ -6477,22 +6477,22 @@
         <v>-113.746897</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L71" s="5">
         <v>1259</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q71" s="7">
         <v>2</v>
@@ -6504,15 +6504,15 @@
         <v>1</v>
       </c>
       <c r="T71" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C72" s="2" t="b">
         <v>0</v>
@@ -6524,10 +6524,10 @@
         <v>0</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>142</v>
@@ -6539,16 +6539,16 @@
         <v>-113.742696</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L72" s="5">
         <v>1259</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -6562,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="T72" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
@@ -6570,7 +6570,7 @@
         <v>66</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C73" s="2" t="b">
         <v>0</v>
@@ -6579,13 +6579,13 @@
         <v>1</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>142</v>
@@ -6597,22 +6597,22 @@
         <v>-113.72604200000001</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L73" s="5">
         <v>1261</v>
       </c>
       <c r="M73" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="P73" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="N73" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="O73" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="P73" s="2" t="s">
-        <v>455</v>
       </c>
       <c r="Q73" s="5">
         <v>2</v>
@@ -6624,7 +6624,7 @@
         <v>1</v>
       </c>
       <c r="T73" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
@@ -6632,7 +6632,7 @@
         <v>68</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C74" s="2" t="b">
         <v>0</v>
@@ -6644,10 +6644,10 @@
         <v>0</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>142</v>
@@ -6659,22 +6659,22 @@
         <v>-113.72049699999999</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L74" s="5">
         <v>1262</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Q74" s="5">
         <v>3</v>
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="T74" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
@@ -6694,7 +6694,7 @@
         <v>69</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C75" s="2" t="b">
         <v>0</v>
@@ -6703,10 +6703,10 @@
         <v>1</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>128</v>
@@ -6721,23 +6721,23 @@
         <v>-113.654847</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L75" s="5">
         <v>1270</v>
       </c>
       <c r="M75" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="P75" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="N75" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="O75" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="P75" s="2" t="s">
-        <v>455</v>
-      </c>
       <c r="Q75" s="5">
         <v>2</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>1</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
@@ -6756,7 +6756,7 @@
         <v>70</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C76" s="2" t="b">
         <v>0</v>
@@ -6768,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>129</v>
@@ -6783,22 +6783,22 @@
         <v>-113.639543</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L76" s="5">
         <v>1281</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Q76" s="5">
         <v>3</v>
@@ -6810,15 +6810,15 @@
         <v>1</v>
       </c>
       <c r="T76" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C77" s="2" t="b">
         <v>0</v>
@@ -6827,13 +6827,13 @@
         <v>1</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>142</v>
@@ -6845,16 +6845,16 @@
         <v>-113.62475000000001</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L77" s="5">
         <v>1288</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
@@ -6868,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="T77" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
@@ -6876,7 +6876,7 @@
         <v>64</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C78" s="2" t="b">
         <v>1</v>
@@ -6885,10 +6885,10 @@
         <v>1</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>126</v>
@@ -6903,22 +6903,22 @@
         <v>-113.63193699999999</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L78" s="5">
         <v>1291</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q78" s="5">
         <v>2</v>
@@ -6930,7 +6930,7 @@
         <v>1</v>
       </c>
       <c r="T78" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
@@ -6938,7 +6938,7 @@
         <v>63</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C79" s="2" t="b">
         <v>1</v>
@@ -6947,13 +6947,13 @@
         <v>1</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>142</v>
@@ -6965,22 +6965,22 @@
         <v>-113.62472099999999</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L79" s="5">
         <v>1291</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q79" s="5">
         <v>2</v>
@@ -6992,7 +6992,7 @@
         <v>1</v>
       </c>
       <c r="T79" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
@@ -7000,7 +7000,7 @@
         <v>71</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C80" s="2" t="b">
         <v>1</v>
@@ -7009,13 +7009,13 @@
         <v>1</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>142</v>
@@ -7027,22 +7027,22 @@
         <v>-113.545027</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L80" s="5">
         <v>1307</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q80" s="5">
         <v>2</v>
@@ -7054,7 +7054,7 @@
         <v>1</v>
       </c>
       <c r="T80" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
@@ -7062,7 +7062,7 @@
         <v>72</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C81" s="2" t="b">
         <v>0</v>
@@ -7074,10 +7074,10 @@
         <v>0</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>142</v>
@@ -7089,22 +7089,22 @@
         <v>-113.462458</v>
       </c>
       <c r="K81" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="L81" s="5">
         <v>1315</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Q81" s="5">
         <v>2</v>
@@ -7116,7 +7116,7 @@
         <v>1</v>
       </c>
       <c r="T81" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
@@ -7133,10 +7133,10 @@
         <v>1</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>130</v>
@@ -7151,23 +7151,23 @@
         <v>-113.43321400000001</v>
       </c>
       <c r="K82" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L82" s="5">
         <v>1319</v>
       </c>
       <c r="M82" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="P82" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="N82" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="O82" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="P82" s="2" t="s">
-        <v>455</v>
-      </c>
       <c r="Q82" s="7">
         <v>2</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>1</v>
       </c>
       <c r="T82" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
@@ -7186,7 +7186,7 @@
         <v>74</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C83" s="2" t="b">
         <v>0</v>
@@ -7198,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>131</v>
@@ -7213,22 +7213,22 @@
         <v>-113.47464100000001</v>
       </c>
       <c r="K83" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L83" s="5">
         <v>1321</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Q83" s="7">
         <v>2</v>
@@ -7240,12 +7240,12 @@
         <v>1</v>
       </c>
       <c r="T83" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>132</v>
@@ -7260,7 +7260,7 @@
         <v>0</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>132</v>
@@ -7275,16 +7275,16 @@
         <v>-113.37041000000001</v>
       </c>
       <c r="K84" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="L84" s="5">
         <v>1331</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
@@ -7298,7 +7298,7 @@
         <v>1</v>
       </c>
       <c r="T84" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
@@ -7306,7 +7306,7 @@
         <v>75</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C85" s="2" t="b">
         <v>1</v>
@@ -7315,10 +7315,10 @@
         <v>1</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>132</v>
@@ -7333,22 +7333,22 @@
         <v>-113.374118</v>
       </c>
       <c r="K85" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="L85" s="5">
         <v>1331</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q85" s="7">
         <v>2</v>
@@ -7360,7 +7360,7 @@
         <v>1</v>
       </c>
       <c r="T85" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C86" s="2" t="b">
         <v>0</v>
@@ -7380,7 +7380,7 @@
         <v>0</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>132</v>
@@ -7395,22 +7395,22 @@
         <v>-113.377624</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L86" s="5">
         <v>1335</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Q86" s="5">
         <v>3</v>
@@ -7422,7 +7422,7 @@
         <v>1</v>
       </c>
       <c r="T86" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
@@ -7430,7 +7430,7 @@
         <v>77</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C87" s="2" t="b">
         <v>0</v>
@@ -7442,7 +7442,7 @@
         <v>0</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>132</v>
@@ -7457,22 +7457,22 @@
         <v>-113.397036</v>
       </c>
       <c r="K87" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L87" s="5">
         <v>1341</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="P87" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Q87" s="5">
         <v>2</v>
@@ -7484,7 +7484,7 @@
         <v>1</v>
       </c>
       <c r="T87" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
@@ -7492,7 +7492,7 @@
         <v>78</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C88" s="2" t="b">
         <v>1</v>
@@ -7501,10 +7501,10 @@
         <v>1</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>133</v>
@@ -7519,22 +7519,22 @@
         <v>-113.365281</v>
       </c>
       <c r="K88" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L88" s="5">
         <v>1332</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q88" s="5">
         <v>2</v>
@@ -7546,7 +7546,7 @@
         <v>1</v>
       </c>
       <c r="T88" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
@@ -7554,7 +7554,7 @@
         <v>79</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C89" s="2" t="b">
         <v>0</v>
@@ -7563,13 +7563,13 @@
         <v>1</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>142</v>
@@ -7581,23 +7581,23 @@
         <v>-113.35366</v>
       </c>
       <c r="K89" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L89" s="5">
         <v>1334</v>
       </c>
       <c r="M89" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="O89" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="P89" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="N89" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="O89" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="P89" s="2" t="s">
-        <v>455</v>
-      </c>
       <c r="Q89" s="7">
         <v>2</v>
       </c>
@@ -7608,15 +7608,15 @@
         <v>1</v>
       </c>
       <c r="T89" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C90" s="2" t="b">
         <v>0</v>
@@ -7628,10 +7628,10 @@
         <v>0</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>142</v>
@@ -7643,16 +7643,16 @@
         <v>-113.31155</v>
       </c>
       <c r="K90" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="L90" s="5">
         <v>1338</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
@@ -7666,7 +7666,7 @@
         <v>1</v>
       </c>
       <c r="T90" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -7674,7 +7674,7 @@
         <v>83</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C91" s="2" t="b">
         <v>1</v>
@@ -7683,13 +7683,13 @@
         <v>1</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>142</v>
@@ -7701,22 +7701,22 @@
         <v>-113.916319</v>
       </c>
       <c r="K91" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="L91" s="5">
         <v>1262</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P91" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q91" s="5">
         <v>1</v>
@@ -7728,7 +7728,7 @@
         <v>1</v>
       </c>
       <c r="T91" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
@@ -7736,7 +7736,7 @@
         <v>84</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C92" s="2" t="b">
         <v>1</v>
@@ -7748,10 +7748,10 @@
         <v>0</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>142</v>
@@ -7763,22 +7763,22 @@
         <v>-113.964145</v>
       </c>
       <c r="K92" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L92" s="5">
         <v>1285</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q92" s="5">
         <v>1</v>
@@ -7790,7 +7790,7 @@
         <v>1</v>
       </c>
       <c r="T92" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
@@ -7798,7 +7798,7 @@
         <v>85</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C93" s="2" t="b">
         <v>0</v>
@@ -7807,10 +7807,10 @@
         <v>1</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>136</v>
@@ -7825,22 +7825,22 @@
         <v>-114.72045300000001</v>
       </c>
       <c r="K93" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L93" s="5">
         <v>1419</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="P93" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Q93" s="5">
         <v>2</v>
@@ -7852,15 +7852,15 @@
         <v>1</v>
       </c>
       <c r="T93" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C94" s="2" t="b">
         <v>0</v>
@@ -7872,10 +7872,10 @@
         <v>0</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>142</v>
@@ -7887,16 +7887,16 @@
         <v>-114.72163999999999</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="L94" s="5">
         <v>1425</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
@@ -7910,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="T94" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
@@ -7918,7 +7918,7 @@
         <v>86</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C95" s="2" t="b">
         <v>1</v>
@@ -7927,10 +7927,10 @@
         <v>1</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>137</v>
@@ -7945,22 +7945,22 @@
         <v>-114.93146</v>
       </c>
       <c r="K95" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L95" s="5">
         <v>1435</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q95" s="5">
         <v>2</v>
@@ -7972,7 +7972,7 @@
         <v>1</v>
       </c>
       <c r="T95" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
@@ -7980,7 +7980,7 @@
         <v>87</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C96" s="2" t="b">
         <v>0</v>
@@ -7992,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>137</v>
@@ -8007,22 +8007,22 @@
         <v>-114.94215</v>
       </c>
       <c r="K96" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L96" s="5">
         <v>1436</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P96" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="Q96" s="5">
         <v>2</v>
@@ -8034,7 +8034,7 @@
         <v>1</v>
       </c>
       <c r="T96" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
@@ -8051,10 +8051,10 @@
         <v>1</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>138</v>
@@ -8069,22 +8069,22 @@
         <v>-114.90504300000001</v>
       </c>
       <c r="K97" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L97" s="5">
         <v>1441</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="Q97" s="5">
         <v>1</v>
@@ -8096,15 +8096,15 @@
         <v>0</v>
       </c>
       <c r="T97" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C98" s="2" t="b">
         <v>0</v>
@@ -8116,10 +8116,10 @@
         <v>0</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>142</v>
@@ -8131,16 +8131,16 @@
         <v>-114.88377199999999</v>
       </c>
       <c r="K98" s="5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="L98" s="5">
         <v>1442</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
@@ -8154,30 +8154,30 @@
         <v>1</v>
       </c>
       <c r="T98" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C99" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D99" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G99" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>554</v>
-      </c>
-      <c r="C99" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D99" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>555</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>142</v>
@@ -8189,16 +8189,16 @@
         <v>-114.83561</v>
       </c>
       <c r="K99" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="L99" s="5">
         <v>1455</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
@@ -8212,15 +8212,15 @@
         <v>0</v>
       </c>
       <c r="T99" s="10" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C100" s="2" t="b">
         <v>0</v>
@@ -8229,13 +8229,13 @@
         <v>1</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>142</v>
@@ -8247,16 +8247,16 @@
         <v>-114.81962</v>
       </c>
       <c r="K100" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="L100" s="5">
         <v>1458</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
@@ -8270,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="T100" s="10" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.3">
@@ -8278,7 +8278,7 @@
         <v>34</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C101" s="2" t="b">
         <v>1</v>
@@ -8287,10 +8287,10 @@
         <v>0</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>110</v>
@@ -8305,22 +8305,22 @@
         <v>-116.74403700000001</v>
       </c>
       <c r="K101" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L101" s="5">
         <v>837</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q101" s="5">
         <v>2</v>
@@ -8332,7 +8332,7 @@
         <v>1</v>
       </c>
       <c r="T101" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.3">
@@ -8340,7 +8340,7 @@
         <v>43</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C102" s="2" t="b">
         <v>0</v>
@@ -8352,7 +8352,7 @@
         <v>0</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>111</v>
@@ -8367,22 +8367,22 @@
         <v>-116.868663</v>
       </c>
       <c r="K102" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L102" s="5">
         <v>914</v>
       </c>
       <c r="M102" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="N102" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="O102" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="P102" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="N102" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="O102" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="P102" s="2" t="s">
-        <v>463</v>
       </c>
       <c r="Q102" s="7">
         <v>3</v>
@@ -8394,7 +8394,7 @@
         <v>1</v>
       </c>
       <c r="T102" s="9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.3">
@@ -8402,7 +8402,7 @@
         <v>35</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C103" s="2" t="b">
         <v>1</v>
@@ -8411,10 +8411,10 @@
         <v>1</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>111</v>
@@ -8429,22 +8429,22 @@
         <v>-116.750231</v>
       </c>
       <c r="K103" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="L103" s="5">
         <v>837</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P103" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q103" s="5">
         <v>1</v>
@@ -8456,7 +8456,7 @@
         <v>1</v>
       </c>
       <c r="T103" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.3">
@@ -8464,7 +8464,7 @@
         <v>36</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C104" s="2" t="b">
         <v>1</v>
@@ -8473,10 +8473,10 @@
         <v>1</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>111</v>
@@ -8491,22 +8491,22 @@
         <v>-116.764304</v>
       </c>
       <c r="K104" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L104" s="5">
         <v>840</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q104" s="5">
         <v>1</v>
@@ -8518,7 +8518,7 @@
         <v>1</v>
       </c>
       <c r="T104" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.3">
@@ -8526,7 +8526,7 @@
         <v>37</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C105" s="2" t="b">
         <v>0</v>
@@ -8535,10 +8535,10 @@
         <v>0</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>112</v>
@@ -8553,22 +8553,22 @@
         <v>-116.872927</v>
       </c>
       <c r="K105" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L105" s="5">
         <v>866</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P105" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="Q105" s="5">
         <v>2</v>
@@ -8580,15 +8580,15 @@
         <v>1</v>
       </c>
       <c r="T105" s="9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C106" s="2" t="b">
         <v>0</v>
@@ -8597,13 +8597,13 @@
         <v>0</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>141</v>
@@ -8615,16 +8615,16 @@
         <v>-116.868492</v>
       </c>
       <c r="K106" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L106" s="5">
         <v>868</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
@@ -8638,7 +8638,7 @@
         <v>1</v>
       </c>
       <c r="T106" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.3">
@@ -8646,7 +8646,7 @@
         <v>38</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C107" s="2" t="b">
         <v>1</v>
@@ -8655,10 +8655,10 @@
         <v>0</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>113</v>
@@ -8673,22 +8673,22 @@
         <v>-116.850735</v>
       </c>
       <c r="K107" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L107" s="5">
         <v>868</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P107" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q107" s="5">
         <v>2</v>
@@ -8700,7 +8700,7 @@
         <v>1</v>
       </c>
       <c r="T107" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.3">
@@ -8708,7 +8708,7 @@
         <v>39</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C108" s="2" t="b">
         <v>1</v>
@@ -8717,10 +8717,10 @@
         <v>1</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>111</v>
@@ -8735,22 +8735,22 @@
         <v>-116.804096</v>
       </c>
       <c r="K108" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L108" s="5">
         <v>871</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q108" s="5">
         <v>2</v>
@@ -8762,7 +8762,7 @@
         <v>1</v>
       </c>
       <c r="T108" s="9" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.3">
@@ -8770,7 +8770,7 @@
         <v>40</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C109" s="2" t="b">
         <v>0</v>
@@ -8779,10 +8779,10 @@
         <v>0</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>114</v>
@@ -8797,22 +8797,22 @@
         <v>-116.806641</v>
       </c>
       <c r="K109" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="L109" s="5">
         <v>896</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P109" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="Q109" s="5">
         <v>2</v>
@@ -8824,7 +8824,7 @@
         <v>1</v>
       </c>
       <c r="T109" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.3">
@@ -8832,7 +8832,7 @@
         <v>41</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C110" s="2" t="b">
         <v>0</v>
@@ -8841,10 +8841,10 @@
         <v>0</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>115</v>
@@ -8859,22 +8859,22 @@
         <v>-116.84478</v>
       </c>
       <c r="K110" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L110" s="5">
         <v>911</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P110" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="Q110" s="5">
         <v>2</v>
@@ -8886,7 +8886,7 @@
         <v>1</v>
       </c>
       <c r="T110" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.3">
@@ -8894,7 +8894,7 @@
         <v>42</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C111" s="2" t="b">
         <v>0</v>
@@ -8903,10 +8903,10 @@
         <v>1</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>111</v>
@@ -8921,22 +8921,22 @@
         <v>-116.868774</v>
       </c>
       <c r="K111" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L111" s="5">
         <v>914</v>
       </c>
       <c r="M111" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="N111" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="O111" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="P111" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="N111" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="O111" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="P111" s="2" t="s">
-        <v>463</v>
       </c>
       <c r="Q111" s="5">
         <v>2</v>
@@ -8948,7 +8948,7 @@
         <v>1</v>
       </c>
       <c r="T111" s="9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.3">
@@ -8956,7 +8956,7 @@
         <v>44</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C112" s="2" t="b">
         <v>0</v>
@@ -8965,10 +8965,10 @@
         <v>1</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>111</v>
@@ -8983,22 +8983,22 @@
         <v>-116.868593</v>
       </c>
       <c r="K112" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L112" s="5">
         <v>914</v>
       </c>
       <c r="M112" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="N112" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="O112" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="P112" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="N112" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="O112" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="P112" s="2" t="s">
-        <v>463</v>
       </c>
       <c r="Q112" s="5">
         <v>2</v>
@@ -9010,15 +9010,15 @@
         <v>1</v>
       </c>
       <c r="T112" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C113" s="1" t="b">
         <v>0</v>
@@ -9027,10 +9027,10 @@
         <v>0</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>106</v>
@@ -9047,25 +9047,25 @@
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B114" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="C114" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D114" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C114" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D114" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>544</v>
-      </c>
       <c r="F114" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>142</v>
@@ -9079,10 +9079,10 @@
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C115" s="1" t="b">
         <v>0</v>
@@ -9091,13 +9091,13 @@
         <v>1</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>139</v>
@@ -9109,22 +9109,22 @@
         <v>-116.92285800000001</v>
       </c>
       <c r="K115" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="L115" s="5">
         <v>756</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="O115" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P115" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="Q115" s="5">
         <v>1</v>
@@ -9136,15 +9136,15 @@
         <v>1</v>
       </c>
       <c r="T115" s="9" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C116" s="1" t="b">
         <v>0</v>
@@ -9153,16 +9153,16 @@
         <v>0</v>
       </c>
       <c r="E116" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G116" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>546</v>
-      </c>
       <c r="H116" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I116" s="5">
         <v>46.368718999999999</v>
@@ -9189,27 +9189,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
